--- a/specifications/endpoints.xlsx
+++ b/specifications/endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/096320130a3a96e9/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="962" documentId="8_{3F0B9A0E-A87F-4B40-8CCA-B605A2DC4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CBFD08-B02E-4EB0-ADAD-2298BA496D78}"/>
+  <xr:revisionPtr revIDLastSave="1012" documentId="8_{3F0B9A0E-A87F-4B40-8CCA-B605A2DC4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED80ACE-5A18-4D0B-A34F-425A66A43620}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{68FD837E-BAE5-4D6E-9163-1BDD8E85EA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68FD837E-BAE5-4D6E-9163-1BDD8E85EA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
   <si>
     <t>Customer</t>
   </si>
@@ -407,12 +407,6 @@
     <t>StatusId</t>
   </si>
   <si>
-    <t>/api/kuby/supplierOrder/{supplierOrderId, supplierOrder}</t>
-  </si>
-  <si>
-    <t>/api/kuby/customerOrder/{customerOrderId, customerOrder}</t>
-  </si>
-  <si>
     <t>/api/kuby/customerOrder/{customerOrderId}</t>
   </si>
   <si>
@@ -432,6 +426,36 @@
   </si>
   <si>
     <t>Quantité modifié en long</t>
+  </si>
+  <si>
+    <t>/api/kuby/supplierOrder/{supplierOrderIdr}</t>
+  </si>
+  <si>
+    <t>Récupère une liste de vin par année</t>
+  </si>
+  <si>
+    <t>WineId, int : year</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/byYear/{ year}</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/allVariety</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/allTerroir</t>
+  </si>
+  <si>
+    <t>Récupère une liste de vin par variété</t>
+  </si>
+  <si>
+    <t>Récupère une liste de vin par terroir</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/allFamily</t>
+  </si>
+  <si>
+    <t>Récupère une liste de vin par famille</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462004AB-4C9C-4AA2-9533-CE0D181056D6}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1702,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>112</v>
@@ -1698,7 +1722,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>113</v>
@@ -1825,7 +1849,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>16</v>
@@ -1913,7 +1937,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>10</v>
@@ -2033,99 +2057,95 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>24</v>
@@ -2133,130 +2153,208 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>10</v>
+      <c r="A53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>130</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F60" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D61" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F61" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:F59"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A31:F31"/>

--- a/specifications/endpoints.xlsx
+++ b/specifications/endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/096320130a3a96e9/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1012" documentId="8_{3F0B9A0E-A87F-4B40-8CCA-B605A2DC4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED80ACE-5A18-4D0B-A34F-425A66A43620}"/>
+  <xr:revisionPtr revIDLastSave="1024" documentId="8_{3F0B9A0E-A87F-4B40-8CCA-B605A2DC4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5074C941-C92C-4597-9376-95CE8DAD9F10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68FD837E-BAE5-4D6E-9163-1BDD8E85EA71}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="141">
   <si>
     <t>Customer</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Liste supplier</t>
   </si>
   <si>
-    <t>Liste des adresses d'un fournisseur</t>
-  </si>
-  <si>
     <t>Ajout d'une adresse d'un fournisseur</t>
   </si>
   <si>
@@ -269,12 +266,6 @@
     <t>/api/kuby/wine/{wineId}</t>
   </si>
   <si>
-    <t>/api/kuby/wine/bySupplier/{wineId}</t>
-  </si>
-  <si>
-    <t>/api/kuby/supplier/addresses/{supplierId}</t>
-  </si>
-  <si>
     <t>/api/kuby/customer/addresses/{customerId}</t>
   </si>
   <si>
@@ -440,22 +431,34 @@
     <t>/api/kuby/wine/byYear/{ year}</t>
   </si>
   <si>
-    <t>/api/kuby/wine/allVariety</t>
-  </si>
-  <si>
-    <t>/api/kuby/wine/allTerroir</t>
-  </si>
-  <si>
     <t>Récupère une liste de vin par variété</t>
   </si>
   <si>
     <t>Récupère une liste de vin par terroir</t>
   </si>
   <si>
-    <t>/api/kuby/wine/allFamily</t>
-  </si>
-  <si>
     <t>Récupère une liste de vin par famille</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/SupplierByWine/{wineId}</t>
+  </si>
+  <si>
+    <t>/api/kuby/supplier/address/{supplierAddressId}</t>
+  </si>
+  <si>
+    <t>/api/kuby/customer/address/{customerAddressId}</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/allFamily{famillyId}</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/allVariety{varietyId}</t>
+  </si>
+  <si>
+    <t>/api/kuby/wine/allTerroir{terroirId}</t>
+  </si>
+  <si>
+    <t>adresse d'un fournisseur</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462004AB-4C9C-4AA2-9533-CE0D181056D6}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1244,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>24</v>
@@ -1315,7 +1318,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
@@ -1327,7 +1330,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -1339,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>24</v>
@@ -1347,13 +1350,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -1367,13 +1370,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -1387,16 +1390,16 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
@@ -1453,7 +1456,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>10</v>
@@ -1519,7 +1522,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>33</v>
@@ -1531,19 +1534,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>24</v>
@@ -1551,13 +1554,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>18</v>
@@ -1571,13 +1574,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>18</v>
@@ -1591,16 +1594,16 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
@@ -1639,19 +1642,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>24</v>
@@ -1659,16 +1662,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -1679,13 +1682,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>27</v>
@@ -1697,18 +1700,18 @@
         <v>24</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>27</v>
@@ -1722,16 +1725,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>24</v>
@@ -1739,19 +1742,19 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>122</v>
-      </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>24</v>
@@ -1789,19 +1792,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>24</v>
@@ -1809,16 +1812,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>28</v>
@@ -1829,13 +1832,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>28</v>
@@ -1849,13 +1852,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>28</v>
@@ -1869,16 +1872,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="11" t="s">
@@ -1887,19 +1890,19 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>24</v>
@@ -1937,40 +1940,40 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>24</v>
@@ -1978,19 +1981,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>24</v>
@@ -1998,19 +2001,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>24</v>
@@ -2019,19 +2022,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>24</v>
@@ -2039,16 +2042,16 @@
     </row>
     <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="27" t="s">
         <v>1</v>
@@ -2059,19 +2062,19 @@
     </row>
     <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>24</v>
@@ -2079,17 +2082,17 @@
     </row>
     <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>24</v>
@@ -2097,17 +2100,17 @@
     </row>
     <row r="49" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>24</v>
@@ -2115,17 +2118,17 @@
     </row>
     <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>24</v>
@@ -2133,13 +2136,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>2</v>
@@ -2153,13 +2156,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>2</v>
@@ -2173,16 +2176,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="11" t="s">
@@ -2191,19 +2194,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>24</v>
@@ -2211,19 +2214,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>24</v>
@@ -2231,19 +2234,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>24</v>
@@ -2251,19 +2254,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>24</v>
@@ -2271,19 +2274,19 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>24</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -2327,13 +2330,13 @@
         <v>7</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>20</v>
